--- a/Documentación/Pruebas de caja negra.xlsx
+++ b/Documentación/Pruebas de caja negra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\Documents\GitHub\Only-Music\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81E03285-6511-4563-AC5C-9A620FB06FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EE1E8D-3742-41D0-9A9A-B076DAADD6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{E90EC276-B47F-46DB-A8F4-E7536BCBC3A8}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="17520" windowHeight="12480" xr2:uid="{E90EC276-B47F-46DB-A8F4-E7536BCBC3A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="220">
   <si>
     <t>ID</t>
   </si>
@@ -415,6 +415,285 @@
   </si>
   <si>
     <t>El usuario visualizará el fragmento de inicio y la canción dejará de reproducirse</t>
+  </si>
+  <si>
+    <t>FR_VIA1</t>
+  </si>
+  <si>
+    <t>FR_VIA2</t>
+  </si>
+  <si>
+    <t>FR_VIA3</t>
+  </si>
+  <si>
+    <t>FR_VIA4</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre un artista</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre un artista para visualizar la información de dicho artista</t>
+  </si>
+  <si>
+    <t>El usuario visualizará en una nueva pantalla la información del artista</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el icono de la lupa</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el icono de la lupa para buscar a un determinado artista</t>
+  </si>
+  <si>
+    <t>Se desplegará una barra donde podrá buscar un artista</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el icono de cerrar después de haber pulsado sobre la lupa</t>
+  </si>
+  <si>
+    <t>Se visualizará el listado de artistas sin filtrar</t>
+  </si>
+  <si>
+    <t>AC_VIAE1</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el botón de visualizar presentación</t>
+  </si>
+  <si>
+    <t>El usuario visualizará la presentación del artista en una nueva pantalla</t>
+  </si>
+  <si>
+    <t>AC_VIAE2</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el botón de pausar el video</t>
+  </si>
+  <si>
+    <t>Se pausa el vídeo</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el botón de avanzar</t>
+  </si>
+  <si>
+    <t>Se adelanta el vídeo</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el botón de retroceder</t>
+  </si>
+  <si>
+    <t>Retrocede el vídeo</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el botón de reproducir</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el botón de reproducir cuando el vídeo esta en pausa o ha finalizado</t>
+  </si>
+  <si>
+    <t>El vídeo empizar a reproducirse</t>
+  </si>
+  <si>
+    <t>El usuario visualizará la información del artista y finalizará el vídeo</t>
+  </si>
+  <si>
+    <t>FRGS_FRS1</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el botón del lápiz</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el botón del lápiz para visualizar y/p editar los post realizados</t>
+  </si>
+  <si>
+    <t>FRGS_FRS2</t>
+  </si>
+  <si>
+    <t>FRGS_FRS3</t>
+  </si>
+  <si>
+    <t>FRGS_FRS4</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el icono del más</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre el icono del más para añadir un nuevo post</t>
+  </si>
+  <si>
+    <t>El usuario visualizará en una nueva pantalla los post realizados</t>
+  </si>
+  <si>
+    <t>El usuario visualizará en una nueva pantalla los distintos campos para añadir un nuevo post</t>
+  </si>
+  <si>
+    <t>El usuario desliza la pantalla para visualizar los post</t>
+  </si>
+  <si>
+    <t>El usuario desliza la pantalla para visualizar los post dependiendo de la categoria</t>
+  </si>
+  <si>
+    <t>El usuario visualizará los post de una determinada categoria dependiendo de que en fragmento este</t>
+  </si>
+  <si>
+    <t>El usuario no ha realizado nigun post</t>
+  </si>
+  <si>
+    <t>Se le informará al usuario de que no ha realizado ninguna publicación</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre uno de los post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario pulsa sobre uno de los post </t>
+  </si>
+  <si>
+    <t>Se le mostrará un usuario un cuadro con dos opciones donde podrá eliminar o actualizar el post</t>
+  </si>
+  <si>
+    <t>Cuadro de opciones</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre la opción de eliminar</t>
+  </si>
+  <si>
+    <t>Recarga de la lista de post realizados</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre la opción de actualizar</t>
+  </si>
+  <si>
+    <t>El usuario visualizará la pantalla de actualización de post</t>
+  </si>
+  <si>
+    <t>AC_ACP1</t>
+  </si>
+  <si>
+    <t>AC_ACP2</t>
+  </si>
+  <si>
+    <t>AC_ACP3</t>
+  </si>
+  <si>
+    <t>AC_ACP4</t>
+  </si>
+  <si>
+    <t>AC_ACP5</t>
+  </si>
+  <si>
+    <t>AC_ACP6</t>
+  </si>
+  <si>
+    <t>Campos vacios tanto en el campo del titulo como en el c ampo del mensaje</t>
+  </si>
+  <si>
+    <t>Mensaje de información</t>
+  </si>
+  <si>
+    <t>Cuando el usuario accede a la pantalla de actualización de post se le informará un mensaje diciendo que solo podrá realizar una publicación de 300 caracteres</t>
+  </si>
+  <si>
+    <t>Visualización del mensaje</t>
+  </si>
+  <si>
+    <t>Mensajes de error en los respectivos campos vacios</t>
+  </si>
+  <si>
+    <t>Campo del titulo y campo del mensaje con información</t>
+  </si>
+  <si>
+    <t>El usuario pulsa el botón actualizar</t>
+  </si>
+  <si>
+    <t>Cuadro de confirmación</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre "Si"</t>
+  </si>
+  <si>
+    <t>El usuario visualizará un cuadro de confirmación</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre "No"</t>
+  </si>
+  <si>
+    <t>El usuario visualizará un cuadro de opciones donde podrá elegir donde podrá elegir la categoria. Una vez la elija volverá a la pantalla de visualización de post realizados</t>
+  </si>
+  <si>
+    <t>El usuario visualizará un mensaje informando de que el post no ha sido actualizado</t>
+  </si>
+  <si>
+    <t>El usuario visualiazará los post realizados por el usuario</t>
+  </si>
+  <si>
+    <t>BT_OP1</t>
+  </si>
+  <si>
+    <t>Se cierra la aplicación</t>
+  </si>
+  <si>
+    <t>BT_OP2</t>
+  </si>
+  <si>
+    <t>BT_OP3</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre salir de la aplicación</t>
+  </si>
+  <si>
+    <t>Se cierra sesión de la aplicación y vuelve a la pantalla de inicio de sesión</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre cerrar ventana</t>
+  </si>
+  <si>
+    <t>El cuadro de opciones se cierra</t>
+  </si>
+  <si>
+    <t>Correcto</t>
+  </si>
+  <si>
+    <t>AC_VP1</t>
+  </si>
+  <si>
+    <t>AC_VP2</t>
+  </si>
+  <si>
+    <t>AC_VP3</t>
+  </si>
+  <si>
+    <t>AC_VP4</t>
+  </si>
+  <si>
+    <t>AC_VP5</t>
+  </si>
+  <si>
+    <t>AC_VP6</t>
+  </si>
+  <si>
+    <t>FRGS_FRS5</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre un post</t>
+  </si>
+  <si>
+    <t>El usuario pulsa sobre un post para visualizar la información del usuario que ha realizado el post</t>
+  </si>
+  <si>
+    <t>El usuario visualizará en una nueva pantalla la información persona de quien ha realizado el post</t>
+  </si>
+  <si>
+    <t>AC_VLP1</t>
+  </si>
+  <si>
+    <t>AC_VLP2</t>
+  </si>
+  <si>
+    <t>AC_VLP3</t>
+  </si>
+  <si>
+    <t>AC_VLP4</t>
+  </si>
+  <si>
+    <t>AC_VLP5</t>
   </si>
 </sst>
 </file>
@@ -444,15 +723,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1A73E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF89B4F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -460,20 +751,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,6 +793,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF89B4F8"/>
+      <color rgb="FF1A73E9"/>
+      <color rgb="FF2B579A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -789,22 +1108,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3600727-8FE8-4A6E-838D-4281196FD49B}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="3" max="3" width="73.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="53.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -817,124 +1136,151 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E5" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E6" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E7" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E8" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -947,176 +1293,215 @@
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E12" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E13" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E14" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E15" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E16" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E17" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E18" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E19" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E20" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E21" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="E22" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1129,64 +1514,79 @@
       <c r="D25" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="E25" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="E26" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="E27" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E28" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
@@ -1199,36 +1599,45 @@
       <c r="D31" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="E31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="E32" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -1241,92 +1650,113 @@
       <c r="D35" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="E35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="E36" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E37" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="E38" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="E39" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="E40" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
@@ -1339,36 +1769,45 @@
       <c r="D43" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="E43" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="E44" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
@@ -1381,103 +1820,773 @@
       <c r="D47" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="E47" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="E48" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="E49" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="E50" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="E51" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="E52" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="E53" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>126</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
